--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1725594.939127848</v>
+        <v>1801124.608792653</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>368.5640728487112</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.42119448601579</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6210949690525</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>32.95327162285825</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>132.0147515468148</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>62.5638668224554</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>196.7218456862863</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>234.0851614725992</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>190.3226398274045</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>34.45403149117948</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>207.5912001051814</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.3419076393841</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.7644211441566392</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675401</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1822,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532057</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>54.92373603571841</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.97444673954876</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>160.8662957688791</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>26.9744467395446</v>
+        <v>155.8385935972277</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>67.90088782653663</v>
       </c>
       <c r="C31" t="n">
-        <v>14.40551067716493</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.64843562452047</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>113.1578721736026</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>23.54872654977475</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>76.70010335780786</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>38.04427376178254</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>60.51808258596473</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.2552209831414</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.838184214438</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.838184214438</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.838184214438</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.838184214438</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.838184214438</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628418</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1051.392652226918</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>665.6043996286735</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>658.65889887947</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>240.6950907776569</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>2177.709280319473</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.709280319473</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>2549.235997435829</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1916.245359491378</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C8" t="n">
-        <v>1547.282842550966</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1189.017143944216</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1189.017143944216</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>2504.904000283471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.245359491378</v>
+        <v>2504.904000283471</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>663.910013048764</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>663.910013048764</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="T10" t="n">
-        <v>663.910013048764</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="U10" t="n">
-        <v>663.910013048764</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="V10" t="n">
-        <v>663.910013048764</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>663.910013048764</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>663.910013048764</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5039,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5127,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5136,7 +5138,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701563</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507007</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.67826817104</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684888</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705784</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>359.169691290399</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5509,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>908.6572205765854</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="W19" t="n">
-        <v>1341.503549752619</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>653.9727323706985</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5731,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>822.9089152986054</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1471.669354659368</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1271.749344574921</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.749344574921</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>1225.349959272375</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>1004.557380128845</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6226,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6294,7 +6296,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.4640073588157</v>
+        <v>4230.423978142505</v>
       </c>
       <c r="C28" t="n">
-        <v>124.4640073588157</v>
+        <v>4061.487795214598</v>
       </c>
       <c r="D28" t="n">
-        <v>124.4640073588157</v>
+        <v>3911.371155802262</v>
       </c>
       <c r="E28" t="n">
-        <v>124.4640073588157</v>
+        <v>3763.458062219869</v>
       </c>
       <c r="F28" t="n">
-        <v>124.4640073588157</v>
+        <v>3616.568114721959</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380588</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.7234906252</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636329</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403512</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585742</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557898</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557898</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473451</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473451</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473451</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267564</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="W28" t="n">
-        <v>754.8946022306029</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325856</v>
+        <v>4632.865022116274</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.1124721890554</v>
+        <v>4412.072442972744</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>688.78598135451</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>674.2349604684848</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>674.2349604684848</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
         <v>674.2349604684848</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.423997082767</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>870.4344461847497</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y31" t="n">
-        <v>870.4344461847497</v>
+        <v>1209.787631771461</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.3840174432639</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C34" t="n">
-        <v>155.447834515357</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>155.447834515357</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>155.447834515357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>155.447834515357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.599783924192</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688034</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557899</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352012</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150511</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170338</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735037</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>121.0036839348058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>121.0036839348058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>121.0036839348058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>121.0036839348058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>474.7746905116418</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>721.5398184181058</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>282.5355983135321</v>
+        <v>773.454678735334</v>
       </c>
       <c r="C40" t="n">
-        <v>282.5355983135321</v>
+        <v>604.5184958074271</v>
       </c>
       <c r="D40" t="n">
-        <v>282.5355983135321</v>
+        <v>454.4018563950914</v>
       </c>
       <c r="E40" t="n">
-        <v>282.5355983135321</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F40" t="n">
-        <v>135.6456508156217</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G40" t="n">
-        <v>135.6456508156217</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>135.6456508156217</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X40" t="n">
-        <v>503.3281774570622</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y40" t="n">
-        <v>282.5355983135321</v>
+        <v>955.1031435655738</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>877.9296607287212</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M45" t="n">
         <v>1247.466478653857</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.0157722697342</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>390.0157722697342</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>239.8991328573984</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>253.7371603504729</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>277.6717966208063</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>62.79465928983211</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127107</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024125</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>231.3136163628589</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>130.6844047393606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>61.34209567542524</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.98990566424405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>91.27134755494893</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.519121723833</v>
+        <v>10.6549748661499</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,10 +24660,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>111.9310923554007</v>
       </c>
       <c r="C31" t="n">
-        <v>152.8413104214629</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.8451328388571</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25129,13 +25131,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>173.3651261629884</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>142.9448419136028</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>69.73385928876131</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>72.37497170248946</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>137.4027273976385</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>5.178741663427729</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651773</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
@@ -26326,34 +26328,34 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="O2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26448,7 +26450,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993014</v>
+        <v>-325308.7188993015</v>
       </c>
       <c r="C6" t="n">
         <v>264659.1603152434</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152435</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403476</v>
+        <v>-150535.6453403474</v>
       </c>
       <c r="F6" t="n">
         <v>374624.3911365485</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365488</v>
+        <v>374624.3911365485</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365485</v>
+        <v>374624.3911365486</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365485</v>
+        <v>374624.3911365487</v>
       </c>
       <c r="J6" t="n">
         <v>198201.1719439556</v>
       </c>
       <c r="K6" t="n">
-        <v>374624.3911365485</v>
+        <v>374624.3911365486</v>
       </c>
       <c r="L6" t="n">
         <v>374624.3911365485</v>
       </c>
       <c r="M6" t="n">
-        <v>239823.3759027112</v>
+        <v>239823.3759027114</v>
       </c>
       <c r="N6" t="n">
+        <v>374624.3911365487</v>
+      </c>
+      <c r="O6" t="n">
+        <v>374624.3911365486</v>
+      </c>
+      <c r="P6" t="n">
         <v>374624.3911365485</v>
-      </c>
-      <c r="O6" t="n">
-        <v>374624.3911365487</v>
-      </c>
-      <c r="P6" t="n">
-        <v>374624.3911365487</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>14.16976881476938</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>299.3310639841191</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>178.935651416066</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>19.6607792729252</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>290.9695011414989</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>237.7163491316542</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85718120047585</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>89.80115265030474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>172.7908842691122</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.12568053025331</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>112.2111604889784</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>44.54644321864663</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28500,7 +28502,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29466,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34781,22 +34783,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>536.1008625915812</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36762,16 +36764,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055993</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006117968</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>588.0961736712726</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556175</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3700978777713</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1801124.608792653</v>
+        <v>1794107.593900942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.5640728487112</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>33.20988753395294</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>105.9455272731791</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>32.95327162285825</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>62.5638668224554</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>190.3226398274045</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>309.7029429582361</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>207.5912001051814</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>229.0573510537999</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441566392</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675401</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>54.92373603571841</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>100.423698006726</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>190.7955476484028</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>160.8662957688791</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.8385935972277</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>100.9428337701609</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>113.1578721736026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.8576818890146845</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>76.70010335780786</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>60.51808258596473</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1408.645612988121</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0200655508536</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>517.0200655508536</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>517.0200655508536</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1409.658350833668</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>1409.658350833668</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1051.392652226918</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>665.6043996286735</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>658.65889887947</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>240.6950907776569</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1796.25819089779</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2697.149091018222</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>2697.149091018222</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>2697.149091018222</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>2549.235997435829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2486.040172362642</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>2697.149091018222</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2504.904000283471</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2504.904000283471</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2504.904000283471</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2504.904000283471</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X8" t="n">
-        <v>2504.904000283471</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>2504.904000283471</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,19 +4886,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782192</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782192</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782192</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635878</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290399</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>908.6572205765854</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>653.9727323706985</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>653.9727323706985</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,19 +5740,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5770,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>198.6551702549586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>1225.349959272375</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>1225.349959272375</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>1225.349959272375</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1004.557380128845</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,13 +6217,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6235,10 +6235,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6311,19 +6311,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4230.423978142505</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>4061.487795214598</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>3911.371155802262</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>3763.458062219869</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>3616.568114721959</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.7234906252</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014291</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014291</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>4632.865022116274</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>4412.072442972744</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1396.953812204204</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1107.825173417763</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>853.1406852118757</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.787631771461</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.787631771461</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,13 +6788,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>840.8022625821368</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>612.8127116841194</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7198,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,7 +7271,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>773.454678735334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>604.5184958074271</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>454.4018563950914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>955.1031435655738</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1326.711790770269</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1326.711790770269</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.711790770269</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.711790770269</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.711790770269</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.722239872251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.9296607287212</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805471</v>
@@ -7648,52 +7648,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
         <v>1247.466478653857</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,19 +7824,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011507</v>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>57.18000134477739</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>231.3136163628589</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>66.0698704566516</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>61.34209567542524</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>91.27134755494893</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>10.6549748661499</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>120.6047272882283</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>173.3651261629884</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>145.5762807575545</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>69.73385928876131</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>137.4027273976385</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651773</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651773</v>
-      </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
@@ -26331,28 +26331,28 @@
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="I2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="J2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="K2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="L2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="I2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721361</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26447,7 +26447,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
@@ -26456,10 +26456,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993015</v>
+        <v>-325308.7188993016</v>
       </c>
       <c r="C6" t="n">
         <v>264659.1603152434</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152435</v>
+        <v>264659.1603152434</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403474</v>
+        <v>-151510.236600069</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>197226.5806842341</v>
       </c>
       <c r="K6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.799876827</v>
       </c>
       <c r="L6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.799876827</v>
       </c>
       <c r="M6" t="n">
-        <v>239823.3759027114</v>
+        <v>238848.7846429897</v>
       </c>
       <c r="N6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="O6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="P6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768268</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.16976881476938</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>178.935651416066</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>259.3273644978285</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>290.9695011414989</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>82.85718120047585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.12568053025331</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>39.53802575917695</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>44.54644321864663</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28502,7 +28502,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36220,7 +36220,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36457,7 +36457,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778055993</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1794107.593900942</v>
+        <v>1799046.856749974</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>70.08905956414519</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.6226856612333</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.9479264102627</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>105.9455272731791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>309.7029429582361</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.46389722690856</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.0573510537999</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>79.80525340903492</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>185.1018287358332</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>22.71958750778553</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>100.423698006726</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>122.313709559931</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>157.2425576766694</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>163.3521163017828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.9428337701609</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>20.36041793607763</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.7955476484028</v>
       </c>
       <c r="T34" t="n">
-        <v>136.9575509524583</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8576818890146845</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>279.1120900633769</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>207.0920728594996</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3954,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4188,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.649320534154</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>542.7038197849505</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>124.7400116831374</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>124.7400116831374</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1349.6523186161</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1349.6523186161</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>959.5129866402885</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.5189870075369</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.5189870075369</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1043.759793676903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>789.0753054710162</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>499.6581354340557</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>874.2032452352215</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1112.024716295845</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>931.8655340243621</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>345.5451177528689</v>
+        <v>665.685973528613</v>
       </c>
       <c r="C22" t="n">
-        <v>345.5451177528689</v>
+        <v>665.685973528613</v>
       </c>
       <c r="D22" t="n">
-        <v>345.5451177528689</v>
+        <v>515.5693341162772</v>
       </c>
       <c r="E22" t="n">
-        <v>345.5451177528689</v>
+        <v>367.6562405338841</v>
       </c>
       <c r="F22" t="n">
-        <v>198.6551702549586</v>
+        <v>220.7662930359737</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>220.7662930359737</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W22" t="n">
-        <v>755.183133481126</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X22" t="n">
-        <v>527.1935825831087</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.1935825831087</v>
+        <v>665.685973528613</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6086,7 +6086,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6217,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.7235151749151</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C31" t="n">
-        <v>563.7235151749151</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1396.953812204204</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1107.825173417763</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>853.1406852118757</v>
+        <v>965.4361378376557</v>
       </c>
       <c r="W31" t="n">
-        <v>563.7235151749151</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="X31" t="n">
-        <v>563.7235151749151</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.7235151749151</v>
+        <v>676.0189678006951</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T34" t="n">
-        <v>1360.575309999864</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U34" t="n">
-        <v>1071.446671213422</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V34" t="n">
-        <v>816.762183007535</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>465.7659634441654</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>465.7659634441654</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.9733843006353</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,7 +7271,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7602,16 +7602,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028587</v>
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23421,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>57.18000134477739</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>145.9044019800022</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>67.03581458799479</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>202.9900678812516</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.0698704566516</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>26.60011880760511</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058393</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>64.30500338171987</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,13 +24654,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>88.78552702204522</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>120.6047272882283</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>231.7772253877504</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="T34" t="n">
-        <v>84.59001010593099</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>145.5762807575545</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>14.45548819888961</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.1983061398</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
@@ -26331,22 +26331,22 @@
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="M2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
@@ -26355,7 +26355,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,25 +26441,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993016</v>
+        <v>-325308.7188993011</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152428</v>
       </c>
       <c r="D6" t="n">
         <v>264659.1603152434</v>
       </c>
       <c r="E6" t="n">
-        <v>-151510.236600069</v>
+        <v>-150633.1044663197</v>
       </c>
       <c r="F6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="G6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="H6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="I6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105762</v>
       </c>
       <c r="J6" t="n">
-        <v>197226.5806842341</v>
+        <v>198103.7128179834</v>
       </c>
       <c r="K6" t="n">
-        <v>373649.799876827</v>
+        <v>374526.9320105765</v>
       </c>
       <c r="L6" t="n">
-        <v>373649.799876827</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="M6" t="n">
-        <v>238848.7846429897</v>
+        <v>239725.9167767394</v>
       </c>
       <c r="N6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="O6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="P6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105765</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>81.84225668071606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.1084150172357</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>19.88405377167459</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>259.3273644978285</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>44.47535211858258</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>39.53802575917695</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.65885272800574</v>
+        <v>0.6124195427708905</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29012,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-2.230967569652997e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35500,13 +35500,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35983,10 +35983,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37150,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
